--- a/analiticosxlsx/4.xlsx
+++ b/analiticosxlsx/4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11017"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josemora/Documents/Github/Scrapers/Presupuesto 2023/analiticosxlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E4962E-968E-0D4F-931A-1A764D5EFA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9BCA20-F666-3B42-A0A6-093D2A3FBF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-340" windowWidth="18480" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-1660" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <r>
       <rPr>
@@ -375,166 +375,131 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">613.858
+      <t>GASTOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GASTOS EN PERSONAL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BIENES Y SERVICIOS DE CONSUMO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ADQUISICIÓN DE ACTIVOS NO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FINANCIEROS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Equipos Informáticos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Programas Informáticos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SERVICIO DE LA DEUDA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Deuda Flotante</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Gasto de Estado de Operaciones*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*GASTOS-(Subt.25+30+32+34+35) + Ítem25.01+Intereses y Otros Gastos Financieros de Deuda + Gasto Proyectado Fondo de Emergencia Transitorio</t>
+    </r>
+  </si>
+  <si>
+    <t>OTROS INGRESOS CORRIENTES</t>
+  </si>
+  <si>
+    <t>Recuperaciones y Reembolsos por Licencias Médicas</t>
+  </si>
+  <si>
+    <t>APORTE FISCAL</t>
+  </si>
+  <si>
+    <t>Libre</t>
+  </si>
+  <si>
+    <t>SALDO INICIAL DE CAJA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">579.058
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">613.858
+  </si>
+  <si>
+    <t xml:space="preserve">613.858
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>GASTOS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>GASTOS EN PERSONAL</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Otras Remuneraciones</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>BIENES Y SERVICIOS DE CONSUMO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ADQUISICIÓN DE ACTIVOS NO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>FINANCIEROS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Equipos Informáticos</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Programas Informáticos</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SERVICIO DE LA DEUDA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Deuda Flotante</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gasto de Estado de Operaciones*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>*GASTOS-(Subt.25+30+32+34+35) + Ítem25.01+Intereses y Otros Gastos Financieros de Deuda + Gasto Proyectado Fondo de Emergencia Transitorio</t>
-    </r>
-  </si>
-  <si>
-    <t>OTROS INGRESOS CORRIENTES</t>
-  </si>
-  <si>
-    <t>Recuperaciones y Reembolsos por Licencias Médicas</t>
-  </si>
-  <si>
-    <t>APORTE FISCAL</t>
-  </si>
-  <si>
-    <t>Libre</t>
-  </si>
-  <si>
-    <t>SALDO INICIAL DE CAJA</t>
-  </si>
-  <si>
-    <t>579.058
-579.058
-10</t>
   </si>
 </sst>
 </file>
@@ -844,6 +809,66 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -882,66 +907,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1281,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1302,47 +1267,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="38.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
     </row>
     <row r="3" spans="1:12" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -1350,32 +1315,32 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
     </row>
     <row r="5" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="63" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="8">
@@ -1402,10 +1367,10 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="44"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="9" t="s">
         <v>8</v>
       </c>
@@ -1464,20 +1429,20 @@
         <v>8</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="60"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="16">
         <v>1236</v>
       </c>
-      <c r="H8" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="56" t="s">
-        <v>16</v>
+      <c r="H8" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
@@ -1488,19 +1453,19 @@
       <c r="B9" s="23">
         <v>1</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="26">
         <v>1236</v>
       </c>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -1508,29 +1473,29 @@
         <v>9</v>
       </c>
       <c r="B10" s="15"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="59">
+      <c r="C10" s="33"/>
+      <c r="D10" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="39">
         <v>544737</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="39">
         <v>536581</v>
       </c>
-      <c r="G10" s="61">
+      <c r="G10" s="41">
         <v>349492</v>
       </c>
-      <c r="H10" s="59">
+      <c r="H10" s="39">
         <v>579058</v>
       </c>
-      <c r="I10" s="59">
+      <c r="I10" s="39">
         <v>613858</v>
       </c>
-      <c r="J10" s="62">
+      <c r="J10" s="42">
         <v>34800</v>
       </c>
-      <c r="K10" s="63">
+      <c r="K10" s="43">
         <v>0.06</v>
       </c>
       <c r="L10" s="3"/>
@@ -1540,29 +1505,29 @@
       <c r="B11" s="15">
         <v>1</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="59">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="39">
         <v>544737</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="39">
         <v>536581</v>
       </c>
-      <c r="G11" s="61">
+      <c r="G11" s="41">
         <v>349492</v>
       </c>
-      <c r="H11" s="59">
+      <c r="H11" s="39">
         <v>579058</v>
       </c>
-      <c r="I11" s="59">
+      <c r="I11" s="39">
         <v>613858</v>
       </c>
-      <c r="J11" s="62">
+      <c r="J11" s="42">
         <v>34800</v>
       </c>
-      <c r="K11" s="64">
+      <c r="K11" s="44">
         <v>0.06</v>
       </c>
       <c r="L11" s="3"/>
@@ -1572,21 +1537,21 @@
         <v>15</v>
       </c>
       <c r="B12" s="20"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="58">
+      <c r="C12" s="34"/>
+      <c r="D12" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="38">
         <v>10</v>
       </c>
-      <c r="F12" s="58">
+      <c r="F12" s="38">
         <v>10</v>
       </c>
       <c r="G12" s="20"/>
-      <c r="H12" s="58">
+      <c r="H12" s="38">
         <v>10</v>
       </c>
-      <c r="I12" s="58">
+      <c r="I12" s="38">
         <v>10</v>
       </c>
       <c r="J12" s="20"/>
@@ -1598,7 +1563,7 @@
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="11">
         <v>544747</v>
@@ -1630,7 +1595,7 @@
       <c r="B14" s="14"/>
       <c r="C14" s="45"/>
       <c r="D14" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="16">
         <v>509003</v>
@@ -1656,97 +1621,93 @@
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24">
-        <v>3</v>
-      </c>
+      <c r="A15" s="28">
+        <v>22</v>
+      </c>
+      <c r="B15" s="23"/>
       <c r="C15" s="46"/>
       <c r="D15" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="26">
-        <v>8156</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
+        <v>35734</v>
+      </c>
+      <c r="F15" s="26">
+        <v>35734</v>
+      </c>
+      <c r="G15" s="26">
+        <v>16567</v>
+      </c>
       <c r="H15" s="26">
-        <v>8670</v>
-      </c>
-      <c r="I15" s="23"/>
+        <v>37987</v>
+      </c>
+      <c r="I15" s="26">
+        <v>52714</v>
+      </c>
       <c r="J15" s="26">
-        <v>-8670</v>
+        <v>14727</v>
       </c>
       <c r="K15" s="27">
-        <v>-1</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="28">
-        <v>22</v>
-      </c>
+      <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="46"/>
       <c r="D16" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="26">
-        <v>35734</v>
-      </c>
-      <c r="F16" s="26">
-        <v>35734</v>
-      </c>
-      <c r="G16" s="26">
-        <v>16567</v>
-      </c>
-      <c r="H16" s="26">
-        <v>37987</v>
-      </c>
-      <c r="I16" s="26">
-        <v>52714</v>
-      </c>
-      <c r="J16" s="26">
-        <v>14727</v>
-      </c>
-      <c r="K16" s="27">
-        <v>0.38800000000000001</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="23"/>
+      <c r="A17" s="28">
+        <v>29</v>
+      </c>
       <c r="B17" s="23"/>
       <c r="C17" s="46"/>
       <c r="D17" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
+      <c r="I17" s="26">
+        <v>3598</v>
+      </c>
+      <c r="J17" s="26">
+        <v>3598</v>
+      </c>
       <c r="K17" s="23"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="28">
-        <v>29</v>
-      </c>
-      <c r="B18" s="23"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="24">
+        <v>6</v>
+      </c>
       <c r="C18" s="46"/>
       <c r="D18" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="26">
-        <v>3598</v>
+        <v>1589</v>
       </c>
       <c r="J18" s="26">
-        <v>3598</v>
+        <v>1589</v>
       </c>
       <c r="K18" s="23"/>
       <c r="L18" s="4"/>
@@ -1754,164 +1715,142 @@
     <row r="19" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="23"/>
       <c r="B19" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="46"/>
       <c r="D19" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="26">
-        <v>1589</v>
+        <v>2009</v>
       </c>
       <c r="J19" s="26">
-        <v>1589</v>
+        <v>2009</v>
       </c>
       <c r="K19" s="23"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24">
-        <v>7</v>
-      </c>
+      <c r="A20" s="28">
+        <v>34</v>
+      </c>
+      <c r="B20" s="23"/>
       <c r="C20" s="46"/>
       <c r="D20" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="E20" s="29">
+        <v>10</v>
+      </c>
+      <c r="F20" s="29">
+        <v>10</v>
+      </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="26">
-        <v>2009</v>
-      </c>
-      <c r="J20" s="26">
-        <v>2009</v>
-      </c>
+      <c r="H20" s="29">
+        <v>10</v>
+      </c>
+      <c r="I20" s="29">
+        <v>10</v>
+      </c>
+      <c r="J20" s="23"/>
       <c r="K20" s="23"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="28">
-        <v>34</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="25" t="s">
+    <row r="21" spans="1:12" ht="11.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="20"/>
+      <c r="B21" s="30">
+        <v>7</v>
+      </c>
+      <c r="C21" s="47"/>
+      <c r="D21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="31">
+        <v>10</v>
+      </c>
+      <c r="F21" s="31">
+        <v>10</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="31">
+        <v>10</v>
+      </c>
+      <c r="I21" s="31">
+        <v>10</v>
+      </c>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" ht="10.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="29">
-        <v>10</v>
-      </c>
-      <c r="F21" s="29">
-        <v>10</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="29">
-        <v>10</v>
-      </c>
-      <c r="I21" s="29">
-        <v>10</v>
-      </c>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12" ht="11.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="20"/>
-      <c r="B22" s="30">
-        <v>7</v>
-      </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="7" t="s">
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="11">
+        <v>544737</v>
+      </c>
+      <c r="F23" s="11">
+        <v>536581</v>
+      </c>
+      <c r="G23" s="11">
+        <v>317697</v>
+      </c>
+      <c r="H23" s="11">
+        <v>579058</v>
+      </c>
+      <c r="I23" s="11">
+        <v>613858</v>
+      </c>
+      <c r="J23" s="11">
+        <v>34800</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="31">
-        <v>10</v>
-      </c>
-      <c r="F22" s="31">
-        <v>10</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="31">
-        <v>10</v>
-      </c>
-      <c r="I22" s="31">
-        <v>10</v>
-      </c>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12" ht="10.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="11">
-        <v>544737</v>
-      </c>
-      <c r="F24" s="11">
-        <v>536581</v>
-      </c>
-      <c r="G24" s="11">
-        <v>317697</v>
-      </c>
-      <c r="H24" s="11">
-        <v>579058</v>
-      </c>
-      <c r="I24" s="11">
-        <v>613858</v>
-      </c>
-      <c r="J24" s="11">
-        <v>34800</v>
-      </c>
-      <c r="K24" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C14:C22"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="C14:C21"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:L24"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:G3"/>
     <mergeCell ref="I2:L2"/>
